--- a/lib_testcase/com.aislend.ProductList.xlsx
+++ b/lib_testcase/com.aislend.ProductList.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="423">
   <si>
     <t>Action</t>
   </si>
@@ -1174,6 +1174,151 @@
 Driver info: org.openqa.selenium.chrome.ChromeDriver
 Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir2304_5586}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
 Session ID: 3029accc9e73fa132c825781c7109fc7</t>
+  </si>
+  <si>
+    <t>VerifyTitle: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+  </si>
+  <si>
+    <t>VerifyElement: null</t>
+  </si>
+  <si>
+    <t>Click: null</t>
+  </si>
+  <si>
+    <t>SetText: Randomemailid</t>
+  </si>
+  <si>
+    <t>SetText: 123456</t>
+  </si>
+  <si>
+    <t>VerifyText: Akash sangal</t>
+  </si>
+  <si>
+    <t>MoveToProductList: Quick &amp; Easy Food Solutions</t>
+  </si>
+  <si>
+    <t>VerifyTitle: Shop online for ready to eat meal mixes and solutions at best prices|City Market Norwalk</t>
+  </si>
+  <si>
+    <t>VerifyText: Ready to Eat</t>
+  </si>
+  <si>
+    <t>VerifyText: 717 West Ave Norwalk, Connecticut,
+CT 06850 , USA
++1 203-956-0241</t>
+  </si>
+  <si>
+    <t>VerifyText: All Days 7:30 AM – 9:00 PM</t>
+  </si>
+  <si>
+    <t>VerifyText: Copyright © 2018 City Market Norwalk. All rights reserved. Terms Of Use &amp; Privacy Policy</t>
+  </si>
+  <si>
+    <t>VerifyTitle: City Market Norwalk - Terms of Use</t>
+  </si>
+  <si>
+    <t>CloseBrowser: Child</t>
+  </si>
+  <si>
+    <t>VerifyTitle: City Super Market Norwalk - Privacy Policy</t>
+  </si>
+  <si>
+    <t>VerifyNoElement: null</t>
+  </si>
+  <si>
+    <t>VerifyTitle: Offers</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: My Account</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: Account Information</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: My Orders</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: My Saved Cards</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: My Wish List</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: Delivery Coverage</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: Offers</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: Sign Out</t>
+  </si>
+  <si>
+    <t>VerifyText: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>SetText: milk</t>
+  </si>
+  <si>
+    <t>SearchProduct: Skim Plus 100% Fat Free Milk</t>
+  </si>
+  <si>
+    <t>SetText: asdasd@</t>
+  </si>
+  <si>
+    <t>VerifyText: Please enter a valid email address (Ex: johndoe@domain.com).</t>
+  </si>
+  <si>
+    <t>SetText: asdasd@assdcsadsaasd.com</t>
+  </si>
+  <si>
+    <t>VerifyText: Thank you for your subscription.</t>
+  </si>
+  <si>
+    <t>VerifyCategoryAndProduct: null</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: null</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: exist</t>
+  </si>
+  <si>
+    <t>MoveAndRemoveProduct: null</t>
+  </si>
+  <si>
+    <t>MoveAndRemoveProduct: All</t>
+  </si>
+  <si>
+    <t>VerifyMiniCart: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>SortBy: Product Name</t>
+  </si>
+  <si>
+    <t>SortBy: Price : Low to High</t>
+  </si>
+  <si>
+    <t>SortBy: Price : High to Low</t>
+  </si>
+  <si>
+    <t>SearchAndAddToWishlist: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>VerifyFooterLinks: null</t>
+  </si>
+  <si>
+    <t>Wait: 6000</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;span class="filter__sortTrigger"&gt;...&lt;/span&gt; is not clickable at point (1327, 7). Other element would receive the click: &lt;div class="header content header__content-container"&gt;...&lt;/div&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 71 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13564_28830}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 3fddb53966380820a83efadd593af767</t>
   </si>
 </sst>
 </file>
@@ -2054,7 +2199,7 @@
         <v>70</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>21</v>
@@ -2093,7 +2238,7 @@
         <v>71</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>42</v>
+        <v>379</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>21</v>
@@ -2132,7 +2277,7 @@
         <v>72</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>21</v>
@@ -2171,7 +2316,7 @@
         <v>73</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>42</v>
+        <v>379</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>21</v>
@@ -2216,7 +2361,7 @@
         <v>76</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>21</v>
@@ -2257,7 +2402,7 @@
         <v>75</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>260</v>
+        <v>382</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>21</v>
@@ -2296,7 +2441,7 @@
         <v>74</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>21</v>
@@ -2337,7 +2482,7 @@
         <v>77</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>21</v>
@@ -2374,7 +2519,7 @@
         <v>70</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>21</v>
@@ -2417,7 +2562,7 @@
         <v>221</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>261</v>
+        <v>384</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>21</v>
@@ -2454,7 +2599,7 @@
         <v>222</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>21</v>
@@ -2495,7 +2640,7 @@
         <v>223</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>327</v>
+        <v>386</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>21</v>
@@ -2534,7 +2679,7 @@
         <v>276</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>42</v>
+        <v>379</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>21</v>
@@ -2573,7 +2718,7 @@
         <v>279</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>42</v>
+        <v>379</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>21</v>
@@ -2612,7 +2757,7 @@
         <v>282</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>42</v>
+        <v>379</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>21</v>
@@ -2651,7 +2796,7 @@
         <v>284</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>42</v>
+        <v>379</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>21</v>
@@ -2690,7 +2835,7 @@
         <v>286</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>42</v>
+        <v>379</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>21</v>
@@ -2729,7 +2874,7 @@
         <v>288</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>42</v>
+        <v>379</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>21</v>
@@ -2768,7 +2913,7 @@
         <v>291</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>42</v>
+        <v>379</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>21</v>
@@ -2809,7 +2954,7 @@
         <v>107</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>328</v>
+        <v>387</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>21</v>
@@ -2850,7 +2995,7 @@
         <v>111</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>329</v>
+        <v>388</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>21</v>
@@ -2891,7 +3036,7 @@
         <v>115</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>330</v>
+        <v>389</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>21</v>
@@ -2930,7 +3075,7 @@
         <v>118</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>21</v>
@@ -2969,7 +3114,7 @@
         <v>121</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>21</v>
@@ -3006,7 +3151,7 @@
         <v>124</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>331</v>
+        <v>391</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>21</v>
@@ -3045,7 +3190,7 @@
         <v>127</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>21</v>
@@ -3084,7 +3229,7 @@
         <v>129</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>21</v>
@@ -3121,7 +3266,7 @@
         <v>130</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>331</v>
+        <v>391</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>21</v>
@@ -3160,7 +3305,7 @@
         <v>133</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>21</v>
@@ -3199,7 +3344,7 @@
         <v>136</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>42</v>
+        <v>379</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>21</v>
@@ -3238,7 +3383,7 @@
         <v>139</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>21</v>
@@ -3277,7 +3422,7 @@
         <v>142</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>42</v>
+        <v>393</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>21</v>
@@ -3316,7 +3461,7 @@
         <v>295</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>21</v>
@@ -3353,7 +3498,7 @@
         <v>297</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>21</v>
@@ -3396,7 +3541,7 @@
         <v>298</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>261</v>
+        <v>384</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>21</v>
@@ -3433,7 +3578,7 @@
         <v>300</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>21</v>
@@ -3472,7 +3617,7 @@
         <v>133</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>21</v>
@@ -3511,7 +3656,7 @@
         <v>224</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>42</v>
+        <v>379</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>21</v>
@@ -3552,7 +3697,7 @@
         <v>151</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>332</v>
+        <v>395</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>21</v>
@@ -3593,7 +3738,7 @@
         <v>154</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>333</v>
+        <v>396</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>21</v>
@@ -3634,7 +3779,7 @@
         <v>157</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>334</v>
+        <v>397</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>21</v>
@@ -3675,7 +3820,7 @@
         <v>160</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>21</v>
@@ -3716,7 +3861,7 @@
         <v>163</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>336</v>
+        <v>399</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>21</v>
@@ -3757,7 +3902,7 @@
         <v>166</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>21</v>
@@ -3798,7 +3943,7 @@
         <v>168</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>338</v>
+        <v>401</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>21</v>
@@ -3839,7 +3984,7 @@
         <v>171</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>339</v>
+        <v>402</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>21</v>
@@ -3878,7 +4023,7 @@
         <v>173</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>21</v>
@@ -3917,7 +4062,7 @@
         <v>176</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>42</v>
+        <v>393</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>21</v>
@@ -3956,7 +4101,7 @@
         <v>179</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>21</v>
@@ -3995,7 +4140,7 @@
         <v>182</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>42</v>
+        <v>379</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>21</v>
@@ -4036,7 +4181,7 @@
         <v>186</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>340</v>
+        <v>403</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>21</v>
@@ -4075,7 +4220,7 @@
         <v>179</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>21</v>
@@ -4114,7 +4259,7 @@
         <v>190</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>42</v>
+        <v>393</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>21</v>
@@ -4155,7 +4300,7 @@
         <v>194</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>341</v>
+        <v>404</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>21</v>
@@ -4194,7 +4339,7 @@
         <v>197</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>21</v>
@@ -4235,7 +4380,7 @@
         <v>202</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>350</v>
+        <v>405</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>21</v>
@@ -4278,7 +4423,7 @@
         <v>221</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>261</v>
+        <v>384</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>21</v>
@@ -4319,7 +4464,7 @@
         <v>206</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>351</v>
+        <v>406</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>21</v>
@@ -4358,7 +4503,7 @@
         <v>209</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>21</v>
@@ -4399,7 +4544,7 @@
         <v>316</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>342</v>
+        <v>407</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>21</v>
@@ -4440,7 +4585,7 @@
         <v>206</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>343</v>
+        <v>408</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>21</v>
@@ -4479,7 +4624,7 @@
         <v>209</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>21</v>
@@ -4520,7 +4665,7 @@
         <v>213</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>344</v>
+        <v>409</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>21</v>
@@ -4559,7 +4704,7 @@
         <v>216</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>21</v>
@@ -4602,7 +4747,7 @@
         <v>221</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>261</v>
+        <v>384</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>21</v>
@@ -4641,7 +4786,7 @@
         <v>225</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>325</v>
+        <v>411</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>21</v>
@@ -4680,7 +4825,7 @@
         <v>225</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>325</v>
+        <v>411</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>21</v>
@@ -4719,7 +4864,7 @@
         <v>225</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>325</v>
+        <v>411</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>21</v>
@@ -4760,7 +4905,7 @@
         <v>225</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>325</v>
+        <v>412</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>21</v>
@@ -4799,7 +4944,7 @@
         <v>226</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>21</v>
@@ -4840,7 +4985,7 @@
         <v>226</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="M72" s="4" t="s">
         <v>21</v>
@@ -4879,7 +5024,7 @@
         <v>179</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>21</v>
@@ -4920,7 +5065,7 @@
         <v>230</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>21</v>
@@ -4959,7 +5104,7 @@
         <v>235</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>21</v>
@@ -4998,7 +5143,7 @@
         <v>190</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>42</v>
+        <v>393</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>21</v>
@@ -5045,7 +5190,7 @@
         <v>241</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="O77" s="4" t="s">
         <v>95</v>
@@ -5080,7 +5225,7 @@
         <v>245</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="M78" s="4" t="s">
         <v>21</v>
@@ -5121,7 +5266,7 @@
         <v>246</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>21</v>
@@ -5164,7 +5309,7 @@
         <v>221</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>261</v>
+        <v>384</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>21</v>
@@ -5205,7 +5350,7 @@
         <v>248</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>345</v>
+        <v>419</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>241</v>
@@ -5248,7 +5393,7 @@
         <v>221</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>261</v>
+        <v>384</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>21</v>
@@ -5287,7 +5432,7 @@
         <v>225</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>325</v>
+        <v>411</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>21</v>
@@ -5326,7 +5471,7 @@
         <v>225</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>325</v>
+        <v>411</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>21</v>
@@ -5365,10 +5510,10 @@
         <v>225</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>325</v>
+        <v>411</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="N85" s="4" t="s">
         <v>22</v>
@@ -5404,7 +5549,7 @@
         <v>179</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="M86" s="4" t="s">
         <v>21</v>
@@ -5445,7 +5590,7 @@
         <v>230</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>21</v>
@@ -5484,7 +5629,7 @@
         <v>235</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>21</v>
@@ -5527,7 +5672,7 @@
         <v>221</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>261</v>
+        <v>384</v>
       </c>
       <c r="M89" s="4" t="s">
         <v>21</v>
@@ -5568,7 +5713,7 @@
         <v>226</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="M90" s="4" t="s">
         <v>21</v>
@@ -5607,7 +5752,7 @@
         <v>179</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="M91" s="4" t="s">
         <v>21</v>
@@ -5648,7 +5793,7 @@
         <v>230</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="M92" s="4" t="s">
         <v>21</v>
@@ -5687,7 +5832,7 @@
         <v>235</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="M93" s="4" t="s">
         <v>21</v>
@@ -5730,7 +5875,7 @@
         <v>221</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>261</v>
+        <v>384</v>
       </c>
       <c r="M94" s="4" t="s">
         <v>21</v>
@@ -5769,7 +5914,7 @@
         <v>323</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>347</v>
+        <v>420</v>
       </c>
       <c r="M95" s="4" t="s">
         <v>21</v>
@@ -5808,7 +5953,7 @@
         <v>263</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="M96" s="4" t="s">
         <v>21</v>
@@ -5847,7 +5992,7 @@
         <v>266</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="M97" s="4" t="s">
         <v>21</v>
@@ -5884,7 +6029,7 @@
         <v>304</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>348</v>
+        <v>421</v>
       </c>
       <c r="M98" s="4" t="s">
         <v>21</v>
@@ -5923,7 +6068,7 @@
         <v>71</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>42</v>
+        <v>379</v>
       </c>
       <c r="M99" s="4" t="s">
         <v>21</v>

--- a/lib_testcase/com.aislend.ProductList.xlsx
+++ b/lib_testcase/com.aislend.ProductList.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3681" uniqueCount="441">
   <si>
     <t>Action</t>
   </si>
@@ -1319,6 +1319,200 @@
 Driver info: org.openqa.selenium.chrome.ChromeDriver
 Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13564_28830}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
 Session ID: 3fddb53966380820a83efadd593af767</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: null</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 47 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 91c945a792718f57b1adc546c6b8d178
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 31 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 91c945a792718f57b1adc546c6b8d178
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 37 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 91c945a792718f57b1adc546c6b8d178
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>action click failed</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 91c945a792718f57b1adc546c6b8d178
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 91c945a792718f57b1adc546c6b8d178
+*** Element info: {Using=id, value=btn-minicart-close}</t>
+  </si>
+  <si>
+    <t>action MoveToProductList failed: Quick &amp; Easy Food Solutions</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 91c945a792718f57b1adc546c6b8d178
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 10 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 91c945a792718f57b1adc546c6b8d178
+*** Element info: {Using=id, value=btn-minicart-close}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 2 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 91c945a792718f57b1adc546c6b8d178
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>action VerifyFooterLinks failed</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'footer__inner-left']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 31 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 91c945a792718f57b1adc546c6b8d178
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'footer__inner-left']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 22 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 91c945a792718f57b1adc546c6b8d178
+*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 22 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 91c945a792718f57b1adc546c6b8d178
+*** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"link text","selector":"Cheese, Dairy &amp; Eggs"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 29 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=link text, value=Cheese, Dairy &amp; Eggs}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 27 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 19 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
   </si>
 </sst>
 </file>
@@ -4867,7 +5061,7 @@
         <v>411</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="N69" s="4" t="s">
         <v>22</v>
@@ -5184,13 +5378,13 @@
         <v>244</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>422</v>
+        <v>22</v>
       </c>
       <c r="O77" s="4" t="s">
         <v>95</v>
@@ -5513,7 +5707,7 @@
         <v>411</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="N85" s="4" t="s">
         <v>22</v>
@@ -5914,13 +6108,13 @@
         <v>323</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>22</v>
+        <v>438</v>
       </c>
       <c r="O95" s="4" t="s">
         <v>95</v>
@@ -5953,13 +6147,13 @@
         <v>263</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>22</v>
+        <v>439</v>
       </c>
       <c r="O96" s="4" t="s">
         <v>95</v>
@@ -5992,13 +6186,13 @@
         <v>266</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>22</v>
+        <v>440</v>
       </c>
       <c r="O97" s="4" t="s">
         <v>95</v>
@@ -6071,7 +6265,7 @@
         <v>379</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="N99" s="4" t="s">
         <v>22</v>

--- a/lib_testcase/com.aislend.ProductList.xlsx
+++ b/lib_testcase/com.aislend.ProductList.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3681" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4563" uniqueCount="533">
   <si>
     <t>Action</t>
   </si>
@@ -1512,6 +1512,864 @@
 Driver info: org.openqa.selenium.chrome.ChromeDriver
 Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
 Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'My Account')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 17 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//a[contains(text(),'My Account')]}</t>
+  </si>
+  <si>
+    <t>action set text failed: Randomemailid</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-email"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 24 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=magestore-sociallogin-popup-email}</t>
+  </si>
+  <si>
+    <t>action set text failed: 123456</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-pass"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 47 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=magestore-sociallogin-popup-pass}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 22 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=magestore-button-sociallogin}</t>
+  </si>
+  <si>
+    <t>text not verified: Akash sangal</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //span[normalize-space(@class) = 'customer-name'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 26 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>text not verified: Ready to Eat</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //span[normalize-space(@class) = 'base'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
+  </si>
+  <si>
+    <t>text not verified: 717 West Ave Norwalk, Connecticut,
+CT 06850 , USA
++1 203-956-0241</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'footer__location-phone'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
+  </si>
+  <si>
+    <t>text not verified: All Days 7:30 AM – 9:00 PM</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'footer-time-slot'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
+  </si>
+  <si>
+    <t>text not verified: Copyright © 2018 City Market Norwalk. All rights reserved. Terms Of Use &amp; Privacy Policy</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'copyright _block'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Terms Of Use')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 31 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//a[contains(text(),'Terms Of Use')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Privacy Policy')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 26 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//a[contains(text(),'Privacy Policy')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="wrap"]/header/div[1]/div/div[2]/ul/li[2]/a"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//*[@id="wrap"]/header/div[1]/div/div[2]/ul/li[2]/a}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action-close']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 20 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action-close']}</t>
+  </si>
+  <si>
+    <t>Element not verified</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'modal-inner-wrap']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 37 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'modal-inner-wrap']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="wrap"]/header/div[1]/div/div[2]/ul/li[3]/a"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 13 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//*[@id="wrap"]/header/div[1]/div/div[2]/ul/li[3]/a}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 25 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[normalize-space(@class) = 'customer-name']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 25 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//span[normalize-space(@class) = 'customer-name']}</t>
+  </si>
+  <si>
+    <t>action Header Menu link Search failed: My Account</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
+  </si>
+  <si>
+    <t>action Header Menu link Search failed: Account Information</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
+  </si>
+  <si>
+    <t>action Header Menu link Search failed: My Orders</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 11 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
+  </si>
+  <si>
+    <t>action Header Menu link Search failed: My Saved Cards</t>
+  </si>
+  <si>
+    <t>action Header Menu link Search failed: My Wish List</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 19 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
+  </si>
+  <si>
+    <t>action Header Menu link Search failed: Delivery Coverage</t>
+  </si>
+  <si>
+    <t>action Header Menu link Search failed: Offers</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
+  </si>
+  <si>
+    <t>action Header Menu link Search failed: Sign Out</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 42 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 20 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
+  </si>
+  <si>
+    <t>text not verified: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //strong[normalize-space(@class) = 'subtitle empty'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 24 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=btn-minicart-close}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 34 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
+  </si>
+  <si>
+    <t>action set text failed: milk</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="search"]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 25 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//*[@id="search"]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action search']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 22 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action search']}</t>
+  </si>
+  <si>
+    <t>action Product Search failed: Skim Plus 100% Fat Free Milk</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 22 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>action set text failed: asdasd@</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"newsletter"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 25 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=newsletter}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action subscribe primary']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 29 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action subscribe primary']}</t>
+  </si>
+  <si>
+    <t>text not verified: Please enter a valid email address (Ex: johndoe@domain.com).</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.id: newsletter-error (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
+  </si>
+  <si>
+    <t>action set text failed: asdasd@assdcsadsaasd.com</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"newsletter"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 17 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=newsletter}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action subscribe primary']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action subscribe primary']}</t>
+  </si>
+  <si>
+    <t>text not verified: Thank you for your subscription.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'text'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
+  </si>
+  <si>
+    <t>VerifyCategoryAndProduct Failed</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 13 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 40 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 45 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 36 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: exist</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 38 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>action MoveAndRemoveProduct failed: null</t>
+  </si>
+  <si>
+    <t>bound must be positive</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 28 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 17 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=btn-minicart-close}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 27 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[normalize-space(@class) = 'filter__sortTrigger']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 27 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//span[normalize-space(@class) = 'filter__sortTrigger']}</t>
+  </si>
+  <si>
+    <t>action sort by failed: Price : Low to High</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[normalize-space(@class) = 'filter__sortTrigger']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 19 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//span[normalize-space(@class) = 'filter__sortTrigger']}</t>
+  </si>
+  <si>
+    <t>action sort by failed: Price : High to Low</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[normalize-space(@class) = 'filter__sortTrigger']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//span[normalize-space(@class) = 'filter__sortTrigger']}</t>
+  </si>
+  <si>
+    <t>action Search And Add To Wishlist failed: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 37 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 33 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 34 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 18 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 13 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=btn-minicart-close}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=btn-minicart-close}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'footer__inner-left']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 30 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'footer__inner-left']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 25 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 29 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
 *** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
   </si>
 </sst>
@@ -5061,7 +5919,7 @@
         <v>411</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="N69" s="4" t="s">
         <v>22</v>
@@ -6108,13 +6966,13 @@
         <v>323</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>438</v>
+        <v>22</v>
       </c>
       <c r="O95" s="4" t="s">
         <v>95</v>
@@ -6147,13 +7005,13 @@
         <v>263</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>427</v>
+        <v>380</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>439</v>
+        <v>22</v>
       </c>
       <c r="O96" s="4" t="s">
         <v>95</v>
@@ -6186,13 +7044,13 @@
         <v>266</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>427</v>
+        <v>380</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>440</v>
+        <v>22</v>
       </c>
       <c r="O97" s="4" t="s">
         <v>95</v>
@@ -6265,7 +7123,7 @@
         <v>379</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="N99" s="4" t="s">
         <v>22</v>

--- a/lib_testcase/com.aislend.ProductList.xlsx
+++ b/lib_testcase/com.aislend.ProductList.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4563" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="428">
   <si>
     <t>Action</t>
   </si>
@@ -1007,366 +1007,325 @@
     <t>exist</t>
   </si>
   <si>
-    <t>Add product successfully</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
-    <t>text verified: Ready to Eat</t>
-  </si>
-  <si>
-    <t>text verified: 717 West Ave Norwalk, Connecticut,
+    <t>City Super Market Norwalk - Online Grocery Shopping with Home Delivery</t>
+  </si>
+  <si>
+    <t>Shop online for ready to eat meal mixes and solutions at best prices|City Market Norwalk</t>
+  </si>
+  <si>
+    <t>//img[@src = 'https://smhttp-ssl-72073.nexcesscdn.net/media/logo/stores/1/City_market_logo_1.png']</t>
+  </si>
+  <si>
+    <t>City Market Norwalk - Terms of Use</t>
+  </si>
+  <si>
+    <t>City Super Market Norwalk - Privacy Policy</t>
+  </si>
+  <si>
+    <t>Title verification Failed: City Super Market Norwalk - Online Grocery Shopping with Home Delivery</t>
+  </si>
+  <si>
+    <t>userchandna5593954@mailinator.com</t>
+  </si>
+  <si>
+    <t>Text Entered successfully: userchandna5593954@mailinator.com</t>
+  </si>
+  <si>
+    <t>Product sort successfully: Product Name</t>
+  </si>
+  <si>
+    <t>Product sort successfully: Price : Low to High</t>
+  </si>
+  <si>
+    <t>Product sort successfully: Price : High to Low</t>
+  </si>
+  <si>
+    <t>City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+  </si>
+  <si>
+    <t>action sort by failed: Product Name</t>
+  </si>
+  <si>
+    <t>VerifyTitle: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+  </si>
+  <si>
+    <t>VerifyElement: null</t>
+  </si>
+  <si>
+    <t>Click: null</t>
+  </si>
+  <si>
+    <t>SetText: 123456</t>
+  </si>
+  <si>
+    <t>VerifyText: Akash sangal</t>
+  </si>
+  <si>
+    <t>MoveToProductList: Quick &amp; Easy Food Solutions</t>
+  </si>
+  <si>
+    <t>VerifyTitle: Shop online for ready to eat meal mixes and solutions at best prices|City Market Norwalk</t>
+  </si>
+  <si>
+    <t>VerifyText: Ready to Eat</t>
+  </si>
+  <si>
+    <t>VerifyText: 717 West Ave Norwalk, Connecticut,
 CT 06850 , USA
 +1 203-956-0241</t>
   </si>
   <si>
-    <t>text verified: All Days 7:30 AM – 9:00 PM</t>
-  </si>
-  <si>
-    <t>text verified: Copyright © 2018 City Market Norwalk. All rights reserved. Terms Of Use &amp; Privacy Policy</t>
-  </si>
-  <si>
-    <t>Action performed successfully: Child</t>
-  </si>
-  <si>
-    <t>Link searched successfully: My Account</t>
-  </si>
-  <si>
-    <t>Link searched successfully: Account Information</t>
-  </si>
-  <si>
-    <t>Link searched successfully: My Orders</t>
-  </si>
-  <si>
-    <t>Link searched successfully: My Saved Cards</t>
-  </si>
-  <si>
-    <t>Link searched successfully: My Wish List</t>
-  </si>
-  <si>
-    <t>Link searched successfully: Delivery Coverage</t>
-  </si>
-  <si>
-    <t>Link searched successfully: Offers</t>
-  </si>
-  <si>
-    <t>Link searched successfully: Sign Out</t>
-  </si>
-  <si>
-    <t>text verified: You have no items in your shopping cart.</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: milk</t>
-  </si>
-  <si>
-    <t>text verified: Please enter a valid email address (Ex: johndoe@domain.com).</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: asdasd@assdcsadsaasd.com</t>
-  </si>
-  <si>
-    <t>text verified: Thank you for your subscription.</t>
-  </si>
-  <si>
-    <t>SearchAndAddToWishlist Fail: Jose Ole Steak &amp; Cheese Chimichanga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verification of MiniCart succesfully </t>
-  </si>
-  <si>
-    <t>VerifyFooterLinks successfully: null</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: 6000</t>
-  </si>
-  <si>
-    <t>text verified: Akash sangal</t>
-  </si>
-  <si>
-    <t>Product searched successfully: Skim Plus 100% Fat Free Milk</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: asdasd@</t>
-  </si>
-  <si>
-    <t>Title verified succesfully: Offers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verification of Category and it's product succesfully </t>
-  </si>
-  <si>
-    <t>City Super Market Norwalk - Online Grocery Shopping with Home Delivery</t>
-  </si>
-  <si>
-    <t>Shop online for ready to eat meal mixes and solutions at best prices|City Market Norwalk</t>
-  </si>
-  <si>
-    <t>//img[@src = 'https://smhttp-ssl-72073.nexcesscdn.net/media/logo/stores/1/City_market_logo_1.png']</t>
-  </si>
-  <si>
-    <t>City Market Norwalk - Terms of Use</t>
-  </si>
-  <si>
-    <t>City Super Market Norwalk - Privacy Policy</t>
-  </si>
-  <si>
-    <t>Title verified succesfully: Shop online for ready to eat meal mixes and solutions at best prices|City Market Norwalk</t>
-  </si>
-  <si>
-    <t>Title verified succesfully: City Market Norwalk - Terms of Use</t>
-  </si>
-  <si>
-    <t>Title verified succesfully: City Super Market Norwalk - Privacy Policy</t>
-  </si>
-  <si>
-    <t>Title verification Failed: City Super Market Norwalk - Online Grocery Shopping with Home Delivery</t>
-  </si>
-  <si>
-    <t>userchandna5593954@mailinator.com</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: userchandna5593954@mailinator.com</t>
-  </si>
-  <si>
-    <t>Product sort successfully: Product Name</t>
-  </si>
-  <si>
-    <t>Product sort successfully: Price : Low to High</t>
-  </si>
-  <si>
-    <t>Product sort successfully: Price : High to Low</t>
-  </si>
-  <si>
-    <t>City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
-  </si>
-  <si>
-    <t>Title verified succesfully: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move and Add product Fail </t>
-  </si>
-  <si>
-    <t>Move and Remove product Fail: null</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: userchandna6581011@mailinator.com</t>
-  </si>
-  <si>
-    <t>Remove product successfully: All</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: Randomemailid</t>
-  </si>
-  <si>
-    <t>Remove product successfully: null</t>
-  </si>
-  <si>
-    <t>action sort by failed: Product Name</t>
-  </si>
-  <si>
-    <t>unknown error: Element &lt;span class="filter__sortTrigger"&gt;...&lt;/span&gt; is not clickable at point (956, 7). Other element would receive the click: &lt;div class="header content header__content-container"&gt;...&lt;/div&gt;
+    <t>VerifyText: All Days 7:30 AM – 9:00 PM</t>
+  </si>
+  <si>
+    <t>VerifyText: Copyright © 2018 City Market Norwalk. All rights reserved. Terms Of Use &amp; Privacy Policy</t>
+  </si>
+  <si>
+    <t>VerifyTitle: City Market Norwalk - Terms of Use</t>
+  </si>
+  <si>
+    <t>CloseBrowser: Child</t>
+  </si>
+  <si>
+    <t>VerifyTitle: City Super Market Norwalk - Privacy Policy</t>
+  </si>
+  <si>
+    <t>VerifyNoElement: null</t>
+  </si>
+  <si>
+    <t>VerifyTitle: Offers</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: My Account</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: Account Information</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: My Orders</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: My Saved Cards</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: My Wish List</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: Delivery Coverage</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: Offers</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: Sign Out</t>
+  </si>
+  <si>
+    <t>VerifyText: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>SetText: milk</t>
+  </si>
+  <si>
+    <t>SearchProduct: Skim Plus 100% Fat Free Milk</t>
+  </si>
+  <si>
+    <t>SetText: asdasd@</t>
+  </si>
+  <si>
+    <t>VerifyText: Please enter a valid email address (Ex: johndoe@domain.com).</t>
+  </si>
+  <si>
+    <t>SetText: asdasd@assdcsadsaasd.com</t>
+  </si>
+  <si>
+    <t>VerifyText: Thank you for your subscription.</t>
+  </si>
+  <si>
+    <t>VerifyCategoryAndProduct: null</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: null</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: exist</t>
+  </si>
+  <si>
+    <t>MoveAndRemoveProduct: null</t>
+  </si>
+  <si>
+    <t>MoveAndRemoveProduct: All</t>
+  </si>
+  <si>
+    <t>VerifyMiniCart: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>SortBy: Price : Low to High</t>
+  </si>
+  <si>
+    <t>SortBy: Price : High to Low</t>
+  </si>
+  <si>
+    <t>SearchAndAddToWishlist: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>VerifyFooterLinks: null</t>
+  </si>
+  <si>
+    <t>Wait: 6000</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;span class="filter__sortTrigger"&gt;...&lt;/span&gt; is not clickable at point (1327, 7). Other element would receive the click: &lt;div class="header content header__content-container"&gt;...&lt;/div&gt;
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 49 milliseconds
+Command duration or timeout: 82 milliseconds
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir2304_5586}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 3029accc9e73fa132c825781c7109fc7</t>
-  </si>
-  <si>
-    <t>VerifyTitle: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
-  </si>
-  <si>
-    <t>VerifyElement: null</t>
-  </si>
-  <si>
-    <t>Click: null</t>
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir9328_11835}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 8ce96e907ee16ee281e57b60c78991b0</t>
+  </si>
+  <si>
+    <t>SetText: userchandna7049580@mailinator.com</t>
   </si>
   <si>
     <t>SetText: Randomemailid</t>
   </si>
   <si>
-    <t>SetText: 123456</t>
-  </si>
-  <si>
-    <t>VerifyText: Akash sangal</t>
-  </si>
-  <si>
-    <t>MoveToProductList: Quick &amp; Easy Food Solutions</t>
-  </si>
-  <si>
-    <t>VerifyTitle: Shop online for ready to eat meal mixes and solutions at best prices|City Market Norwalk</t>
-  </si>
-  <si>
-    <t>VerifyText: Ready to Eat</t>
-  </si>
-  <si>
-    <t>VerifyText: 717 West Ave Norwalk, Connecticut,
-CT 06850 , USA
-+1 203-956-0241</t>
-  </si>
-  <si>
-    <t>VerifyText: All Days 7:30 AM – 9:00 PM</t>
-  </si>
-  <si>
-    <t>VerifyText: Copyright © 2018 City Market Norwalk. All rights reserved. Terms Of Use &amp; Privacy Policy</t>
-  </si>
-  <si>
-    <t>VerifyTitle: City Market Norwalk - Terms of Use</t>
-  </si>
-  <si>
-    <t>CloseBrowser: Child</t>
-  </si>
-  <si>
-    <t>VerifyTitle: City Super Market Norwalk - Privacy Policy</t>
-  </si>
-  <si>
-    <t>VerifyNoElement: null</t>
-  </si>
-  <si>
-    <t>VerifyTitle: Offers</t>
-  </si>
-  <si>
-    <t>HeaderMenuSearch: My Account</t>
-  </si>
-  <si>
-    <t>HeaderMenuSearch: Account Information</t>
-  </si>
-  <si>
-    <t>HeaderMenuSearch: My Orders</t>
-  </si>
-  <si>
-    <t>HeaderMenuSearch: My Saved Cards</t>
-  </si>
-  <si>
-    <t>HeaderMenuSearch: My Wish List</t>
-  </si>
-  <si>
-    <t>HeaderMenuSearch: Delivery Coverage</t>
-  </si>
-  <si>
-    <t>HeaderMenuSearch: Offers</t>
-  </si>
-  <si>
-    <t>HeaderMenuSearch: Sign Out</t>
-  </si>
-  <si>
-    <t>VerifyText: You have no items in your shopping cart.</t>
-  </si>
-  <si>
-    <t>SetText: milk</t>
-  </si>
-  <si>
-    <t>SearchProduct: Skim Plus 100% Fat Free Milk</t>
-  </si>
-  <si>
-    <t>SetText: asdasd@</t>
-  </si>
-  <si>
-    <t>VerifyText: Please enter a valid email address (Ex: johndoe@domain.com).</t>
-  </si>
-  <si>
-    <t>SetText: asdasd@assdcsadsaasd.com</t>
-  </si>
-  <si>
-    <t>VerifyText: Thank you for your subscription.</t>
-  </si>
-  <si>
-    <t>VerifyCategoryAndProduct: null</t>
-  </si>
-  <si>
-    <t>MoveAndAddProduct: null</t>
-  </si>
-  <si>
-    <t>MoveAndAddProduct: exist</t>
-  </si>
-  <si>
-    <t>MoveAndRemoveProduct: null</t>
-  </si>
-  <si>
-    <t>MoveAndRemoveProduct: All</t>
-  </si>
-  <si>
-    <t>VerifyMiniCart: You have no items in your shopping cart.</t>
-  </si>
-  <si>
-    <t>SortBy: Product Name</t>
-  </si>
-  <si>
-    <t>SortBy: Price : Low to High</t>
-  </si>
-  <si>
-    <t>SortBy: Price : High to Low</t>
-  </si>
-  <si>
-    <t>SearchAndAddToWishlist: Jose Ole Steak &amp; Cheese Chimichanga</t>
-  </si>
-  <si>
-    <t>VerifyFooterLinks: null</t>
-  </si>
-  <si>
-    <t>Wait: 6000</t>
-  </si>
-  <si>
-    <t>unknown error: Element &lt;span class="filter__sortTrigger"&gt;...&lt;/span&gt; is not clickable at point (1327, 7). Other element would receive the click: &lt;div class="header content header__content-container"&gt;...&lt;/div&gt;
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 71 milliseconds
+    <t>text not verified: Please enter a valid email address (Ex: johndoe@domain.com).</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.id: newsletter-error (tried for 40 second(s) with 500 MILLISECONDS interval)
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13564_28830}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 3fddb53966380820a83efadd593af767</t>
-  </si>
-  <si>
-    <t>action Move and add product failed: null</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca</t>
+  </si>
+  <si>
+    <t>action set text failed: asdasd@assdcsadsaasd.com</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"newsletter"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 47 milliseconds
+Command duration or timeout: 13 milliseconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 91c945a792718f57b1adc546c6b8d178
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=id, value=newsletter}</t>
+  </si>
+  <si>
+    <t>action click failed</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action subscribe primary']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 31 milliseconds
+Command duration or timeout: 26 milliseconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 91c945a792718f57b1adc546c6b8d178
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action subscribe primary']}</t>
+  </si>
+  <si>
+    <t>text not verified: Thank you for your subscription.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'text'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca</t>
+  </si>
+  <si>
+    <t>VerifyCategoryAndProduct Failed</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 37 milliseconds
+Command duration or timeout: 14 milliseconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 91c945a792718f57b1adc546c6b8d178
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>action MoveToProductList failed: Quick &amp; Easy Food Solutions</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 11 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: null</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 21 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
 *** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
   </si>
   <si>
-    <t>action click failed</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 12 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: exist</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
 Command duration or timeout: 15 milliseconds
@@ -1374,8 +1333,27 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 91c945a792718f57b1adc546c6b8d178
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>action MoveAndRemoveProduct failed: null</t>
+  </si>
+  <si>
+    <t>bound must be positive</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 13 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
 *** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
   </si>
   <si>
@@ -1387,15 +1365,15 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 91c945a792718f57b1adc546c6b8d178
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
 *** Element info: {Using=id, value=btn-minicart-close}</t>
   </si>
   <si>
-    <t>action MoveToProductList failed: Quick &amp; Easy Food Solutions</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+    <t>Element not verified</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
 Command duration or timeout: 16 milliseconds
@@ -1403,12 +1381,73 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 91c945a792718f57b1adc546c6b8d178
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action switch']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action switch']}</t>
+  </si>
+  <si>
+    <t>action sort by failed: Price : Low to High</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action switch']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 9 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action switch']}</t>
+  </si>
+  <si>
+    <t>action sort by failed: Price : High to Low</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action switch']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 11 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action switch']}</t>
+  </si>
+  <si>
+    <t>action Search And Add To Wishlist failed: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 8 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
 Command duration or timeout: 10 milliseconds
@@ -1416,93 +1455,12 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 91c945a792718f57b1adc546c6b8d178
-*** Element info: {Using=id, value=btn-minicart-close}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 2 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 91c945a792718f57b1adc546c6b8d178
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
 *** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
   </si>
   <si>
-    <t>action VerifyFooterLinks failed</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'footer__inner-left']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 31 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 91c945a792718f57b1adc546c6b8d178
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'footer__inner-left']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 22 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 91c945a792718f57b1adc546c6b8d178
-*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 22 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 91c945a792718f57b1adc546c6b8d178
-*** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"link text","selector":"Cheese, Dairy &amp; Eggs"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 29 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=link text, value=Cheese, Dairy &amp; Eggs}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 27 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
 Command duration or timeout: 19 milliseconds
@@ -1510,282 +1468,12 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'My Account')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 17 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//a[contains(text(),'My Account')]}</t>
-  </si>
-  <si>
-    <t>action set text failed: Randomemailid</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-email"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 24 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=id, value=magestore-sociallogin-popup-email}</t>
-  </si>
-  <si>
-    <t>action set text failed: 123456</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-pass"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 47 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=id, value=magestore-sociallogin-popup-pass}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 22 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=id, value=magestore-button-sociallogin}</t>
-  </si>
-  <si>
-    <t>text not verified: Akash sangal</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //span[normalize-space(@class) = 'customer-name'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 26 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
-  </si>
-  <si>
-    <t>text not verified: Ready to Eat</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //span[normalize-space(@class) = 'base'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
-  </si>
-  <si>
-    <t>text not verified: 717 West Ave Norwalk, Connecticut,
-CT 06850 , USA
-+1 203-956-0241</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'footer__location-phone'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
-  </si>
-  <si>
-    <t>text not verified: All Days 7:30 AM – 9:00 PM</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'footer-time-slot'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
-  </si>
-  <si>
-    <t>text not verified: Copyright © 2018 City Market Norwalk. All rights reserved. Terms Of Use &amp; Privacy Policy</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'copyright _block'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Terms Of Use')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 31 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//a[contains(text(),'Terms Of Use')]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Privacy Policy')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 26 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//a[contains(text(),'Privacy Policy')]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="wrap"]/header/div[1]/div/div[2]/ul/li[2]/a"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 14 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//*[@id="wrap"]/header/div[1]/div/div[2]/ul/li[2]/a}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action-close']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action-close']}</t>
-  </si>
-  <si>
-    <t>Element not verified</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'modal-inner-wrap']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 37 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'modal-inner-wrap']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="wrap"]/header/div[1]/div/div[2]/ul/li[3]/a"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 13 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//*[@id="wrap"]/header/div[1]/div/div[2]/ul/li[3]/a}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 25 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[normalize-space(@class) = 'customer-name']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 25 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//span[normalize-space(@class) = 'customer-name']}</t>
-  </si>
-  <si>
-    <t>action Header Menu link Search failed: My Account</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 15 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
-  </si>
-  <si>
-    <t>action Header Menu link Search failed: Account Information</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 14 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
-  </si>
-  <si>
-    <t>action Header Menu link Search failed: My Orders</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
 Command duration or timeout: 11 milliseconds
@@ -1793,280 +1481,61 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
-  </si>
-  <si>
-    <t>action Header Menu link Search failed: My Saved Cards</t>
-  </si>
-  <si>
-    <t>action Header Menu link Search failed: My Wish List</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 19 milliseconds
+Command duration or timeout: 9 milliseconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
-  </si>
-  <si>
-    <t>action Header Menu link Search failed: Delivery Coverage</t>
-  </si>
-  <si>
-    <t>action Header Menu link Search failed: Offers</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=id, value=btn-minicart-close}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 16 milliseconds
+Command duration or timeout: 9 milliseconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
-  </si>
-  <si>
-    <t>action Header Menu link Search failed: Sign Out</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 14 milliseconds
+Command duration or timeout: 9 milliseconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 42 milliseconds
+Command duration or timeout: 11 milliseconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
-  </si>
-  <si>
-    <t>text not verified: You have no items in your shopping cart.</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //strong[normalize-space(@class) = 'subtitle empty'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 24 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
 *** Element info: {Using=id, value=btn-minicart-close}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 34 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
-  </si>
-  <si>
-    <t>action set text failed: milk</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="search"]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 25 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//*[@id="search"]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action search']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 22 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action search']}</t>
-  </si>
-  <si>
-    <t>action Product Search failed: Skim Plus 100% Fat Free Milk</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 22 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 16 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
-  </si>
-  <si>
-    <t>action set text failed: asdasd@</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"newsletter"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 25 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=id, value=newsletter}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action subscribe primary']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 29 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action subscribe primary']}</t>
-  </si>
-  <si>
-    <t>text not verified: Please enter a valid email address (Ex: johndoe@domain.com).</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.id: newsletter-error (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
-  </si>
-  <si>
-    <t>action set text failed: asdasd@assdcsadsaasd.com</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"newsletter"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 17 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=id, value=newsletter}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action subscribe primary']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 16 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action subscribe primary']}</t>
-  </si>
-  <si>
-    <t>text not verified: Thank you for your subscription.</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'text'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
-  </si>
-  <si>
-    <t>VerifyCategoryAndProduct Failed</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 14 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
@@ -2077,128 +1546,28 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
 *** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
   </si>
   <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+    <t>action VerifyFooterLinks failed</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'footer__inner-left']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 40 milliseconds
+Command duration or timeout: 14 milliseconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 45 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 36 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>action Move and add product failed: exist</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 38 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>action MoveAndRemoveProduct failed: null</t>
-  </si>
-  <si>
-    <t>bound must be positive</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 28 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 17 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=id, value=btn-minicart-close}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 27 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[normalize-space(@class) = 'filter__sortTrigger']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 27 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//span[normalize-space(@class) = 'filter__sortTrigger']}</t>
-  </si>
-  <si>
-    <t>action sort by failed: Price : Low to High</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[normalize-space(@class) = 'filter__sortTrigger']"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'footer__inner-left']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
 Command duration or timeout: 19 milliseconds
@@ -2206,171 +1575,25 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//span[normalize-space(@class) = 'filter__sortTrigger']}</t>
-  </si>
-  <si>
-    <t>action sort by failed: Price : High to Low</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[normalize-space(@class) = 'filter__sortTrigger']"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 15 milliseconds
+Command duration or timeout: 24 milliseconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//span[normalize-space(@class) = 'filter__sortTrigger']}</t>
-  </si>
-  <si>
-    <t>action Search And Add To Wishlist failed: Jose Ole Steak &amp; Cheese Chimichanga</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 16 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 37 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 33 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 34 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 18 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 13 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=id, value=btn-minicart-close}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 14 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 15 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=id, value=btn-minicart-close}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'footer__inner-left']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 30 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'footer__inner-left']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 25 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 29 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
 *** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
+  </si>
+  <si>
+    <t>SortBy: Product Name</t>
   </si>
 </sst>
 </file>
@@ -3226,7 +2449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:15">
+    <row ht="60" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -3242,7 +2465,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -3251,7 +2474,7 @@
         <v>70</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>21</v>
@@ -3290,7 +2513,7 @@
         <v>71</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>21</v>
@@ -3329,7 +2552,7 @@
         <v>72</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>21</v>
@@ -3368,7 +2591,7 @@
         <v>73</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>21</v>
@@ -3413,7 +2636,7 @@
         <v>76</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>21</v>
@@ -3454,7 +2677,7 @@
         <v>75</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>21</v>
@@ -3493,7 +2716,7 @@
         <v>74</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>21</v>
@@ -3534,7 +2757,7 @@
         <v>77</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>21</v>
@@ -3546,7 +2769,7 @@
         <v>95</v>
       </c>
     </row>
-    <row ht="75" r="10" spans="1:15">
+    <row ht="60" r="10" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -3562,7 +2785,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -3571,7 +2794,7 @@
         <v>70</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>21</v>
@@ -3614,7 +2837,7 @@
         <v>221</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>21</v>
@@ -3626,7 +2849,7 @@
         <v>95</v>
       </c>
     </row>
-    <row ht="90" r="12" spans="1:15">
+    <row ht="75" r="12" spans="1:15">
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
@@ -3642,7 +2865,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -3651,7 +2874,7 @@
         <v>222</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>21</v>
@@ -3692,7 +2915,7 @@
         <v>223</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>21</v>
@@ -3721,7 +2944,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -3731,7 +2954,7 @@
         <v>276</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>21</v>
@@ -3770,7 +2993,7 @@
         <v>279</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>21</v>
@@ -3809,7 +3032,7 @@
         <v>282</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>21</v>
@@ -3848,7 +3071,7 @@
         <v>284</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>21</v>
@@ -3887,7 +3110,7 @@
         <v>286</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>21</v>
@@ -3926,7 +3149,7 @@
         <v>288</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>21</v>
@@ -3965,7 +3188,7 @@
         <v>291</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>21</v>
@@ -4006,7 +3229,7 @@
         <v>107</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>21</v>
@@ -4047,7 +3270,7 @@
         <v>111</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>21</v>
@@ -4088,7 +3311,7 @@
         <v>115</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>21</v>
@@ -4127,7 +3350,7 @@
         <v>118</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>21</v>
@@ -4139,7 +3362,7 @@
         <v>95</v>
       </c>
     </row>
-    <row ht="45" r="25" spans="1:15">
+    <row ht="30" r="25" spans="1:15">
       <c r="A25" s="4" t="s">
         <v>46</v>
       </c>
@@ -4155,7 +3378,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>120</v>
@@ -4166,7 +3389,7 @@
         <v>121</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>21</v>
@@ -4203,7 +3426,7 @@
         <v>124</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>21</v>
@@ -4242,7 +3465,7 @@
         <v>127</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>21</v>
@@ -4270,7 +3493,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>120</v>
@@ -4281,7 +3504,7 @@
         <v>129</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>21</v>
@@ -4318,7 +3541,7 @@
         <v>130</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>21</v>
@@ -4357,7 +3580,7 @@
         <v>133</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>21</v>
@@ -4396,7 +3619,7 @@
         <v>136</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>21</v>
@@ -4435,7 +3658,7 @@
         <v>139</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>21</v>
@@ -4474,7 +3697,7 @@
         <v>142</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>21</v>
@@ -4513,7 +3736,7 @@
         <v>295</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>21</v>
@@ -4550,7 +3773,7 @@
         <v>297</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>21</v>
@@ -4593,7 +3816,7 @@
         <v>298</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>21</v>
@@ -4605,7 +3828,7 @@
         <v>95</v>
       </c>
     </row>
-    <row ht="90" r="37" spans="1:15">
+    <row ht="75" r="37" spans="1:15">
       <c r="A37" s="4" t="s">
         <v>48</v>
       </c>
@@ -4621,7 +3844,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -4630,7 +3853,7 @@
         <v>300</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>21</v>
@@ -4669,7 +3892,7 @@
         <v>133</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>21</v>
@@ -4708,7 +3931,7 @@
         <v>224</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>21</v>
@@ -4749,7 +3972,7 @@
         <v>151</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>21</v>
@@ -4790,7 +4013,7 @@
         <v>154</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>21</v>
@@ -4831,7 +4054,7 @@
         <v>157</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>21</v>
@@ -4872,7 +4095,7 @@
         <v>160</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>21</v>
@@ -4913,7 +4136,7 @@
         <v>163</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>21</v>
@@ -4954,7 +4177,7 @@
         <v>166</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>21</v>
@@ -4995,7 +4218,7 @@
         <v>168</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>21</v>
@@ -5036,7 +4259,7 @@
         <v>171</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>21</v>
@@ -5075,7 +4298,7 @@
         <v>173</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>21</v>
@@ -5114,7 +4337,7 @@
         <v>176</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>21</v>
@@ -5153,7 +4376,7 @@
         <v>179</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>21</v>
@@ -5192,7 +4415,7 @@
         <v>182</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>21</v>
@@ -5233,7 +4456,7 @@
         <v>186</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>21</v>
@@ -5272,7 +4495,7 @@
         <v>179</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>21</v>
@@ -5311,7 +4534,7 @@
         <v>190</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>21</v>
@@ -5352,7 +4575,7 @@
         <v>194</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>21</v>
@@ -5391,7 +4614,7 @@
         <v>197</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>21</v>
@@ -5432,7 +4655,7 @@
         <v>202</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>21</v>
@@ -5475,7 +4698,7 @@
         <v>221</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>21</v>
@@ -5516,7 +4739,7 @@
         <v>206</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>21</v>
@@ -5555,7 +4778,7 @@
         <v>209</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>21</v>
@@ -5596,7 +4819,7 @@
         <v>316</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>21</v>
@@ -5637,7 +4860,7 @@
         <v>206</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>21</v>
@@ -5676,7 +4899,7 @@
         <v>209</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>21</v>
@@ -5717,7 +4940,7 @@
         <v>213</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>21</v>
@@ -5756,7 +4979,7 @@
         <v>216</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>21</v>
@@ -5799,7 +5022,7 @@
         <v>221</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>21</v>
@@ -5838,7 +5061,7 @@
         <v>225</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>21</v>
@@ -5877,7 +5100,7 @@
         <v>225</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>21</v>
@@ -5916,7 +5139,7 @@
         <v>225</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>21</v>
@@ -5957,7 +5180,7 @@
         <v>225</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>21</v>
@@ -5996,7 +5219,7 @@
         <v>226</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>21</v>
@@ -6028,7 +5251,7 @@
         <v>200</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
@@ -6037,7 +5260,7 @@
         <v>226</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="M72" s="4" t="s">
         <v>21</v>
@@ -6076,7 +5299,7 @@
         <v>179</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>21</v>
@@ -6088,7 +5311,7 @@
         <v>95</v>
       </c>
     </row>
-    <row ht="30" r="74" spans="1:15">
+    <row ht="45" r="74" spans="1:15">
       <c r="A74" s="4" t="s">
         <v>56</v>
       </c>
@@ -6117,7 +5340,7 @@
         <v>230</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>21</v>
@@ -6156,7 +5379,7 @@
         <v>235</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>21</v>
@@ -6195,7 +5418,7 @@
         <v>190</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>21</v>
@@ -6207,7 +5430,7 @@
         <v>95</v>
       </c>
     </row>
-    <row ht="30" r="77" spans="1:15">
+    <row ht="409.5" r="77" spans="1:15">
       <c r="A77" s="4" t="s">
         <v>57</v>
       </c>
@@ -6236,7 +5459,7 @@
         <v>244</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="M77" s="4" t="s">
         <v>21</v>
@@ -6277,7 +5500,7 @@
         <v>245</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="M78" s="4" t="s">
         <v>21</v>
@@ -6318,7 +5541,7 @@
         <v>246</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>21</v>
@@ -6361,7 +5584,7 @@
         <v>221</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>21</v>
@@ -6402,7 +5625,7 @@
         <v>248</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>241</v>
@@ -6445,7 +5668,7 @@
         <v>221</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>21</v>
@@ -6484,7 +5707,7 @@
         <v>225</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>21</v>
@@ -6523,7 +5746,7 @@
         <v>225</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>21</v>
@@ -6562,7 +5785,7 @@
         <v>225</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="M85" s="4" t="s">
         <v>21</v>
@@ -6601,7 +5824,7 @@
         <v>179</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M86" s="4" t="s">
         <v>21</v>
@@ -6613,7 +5836,7 @@
         <v>95</v>
       </c>
     </row>
-    <row ht="30" r="87" spans="1:15">
+    <row ht="45" r="87" spans="1:15">
       <c r="A87" s="4" t="s">
         <v>92</v>
       </c>
@@ -6642,7 +5865,7 @@
         <v>230</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>21</v>
@@ -6681,7 +5904,7 @@
         <v>235</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>21</v>
@@ -6724,7 +5947,7 @@
         <v>221</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M89" s="4" t="s">
         <v>21</v>
@@ -6756,7 +5979,7 @@
         <v>200</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
@@ -6765,7 +5988,7 @@
         <v>226</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="M90" s="4" t="s">
         <v>21</v>
@@ -6804,7 +6027,7 @@
         <v>179</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M91" s="4" t="s">
         <v>21</v>
@@ -6816,7 +6039,7 @@
         <v>95</v>
       </c>
     </row>
-    <row ht="30" r="92" spans="1:15">
+    <row ht="45" r="92" spans="1:15">
       <c r="A92" s="4" t="s">
         <v>92</v>
       </c>
@@ -6845,7 +6068,7 @@
         <v>230</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="M92" s="4" t="s">
         <v>21</v>
@@ -6884,7 +6107,7 @@
         <v>235</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M93" s="4" t="s">
         <v>21</v>
@@ -6927,7 +6150,7 @@
         <v>221</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M94" s="4" t="s">
         <v>21</v>
@@ -6966,7 +6189,7 @@
         <v>323</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="M95" s="4" t="s">
         <v>21</v>
@@ -7005,7 +6228,7 @@
         <v>263</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M96" s="4" t="s">
         <v>21</v>
@@ -7044,7 +6267,7 @@
         <v>266</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="M97" s="4" t="s">
         <v>21</v>
@@ -7081,7 +6304,7 @@
         <v>304</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>421</v>
+        <v>380</v>
       </c>
       <c r="M98" s="4" t="s">
         <v>21</v>
@@ -7120,7 +6343,7 @@
         <v>71</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="M99" s="4" t="s">
         <v>21</v>
@@ -7231,7 +6454,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -7240,7 +6463,7 @@
         <v>70</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>241</v>
@@ -7389,7 +6612,7 @@
         <v>66</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>317</v>
@@ -7402,7 +6625,7 @@
         <v>76</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>21</v>
@@ -7566,7 +6789,7 @@
         <v>244</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>21</v>
@@ -7607,7 +6830,7 @@
         <v>245</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>21</v>
@@ -7648,7 +6871,7 @@
         <v>246</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>21</v>

--- a/lib_testcase/com.aislend.ProductList.xlsx
+++ b/lib_testcase/com.aislend.ProductList.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="383">
   <si>
     <t>Action</t>
   </si>
@@ -1046,9 +1046,6 @@
     <t>City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
   </si>
   <si>
-    <t>action sort by failed: Product Name</t>
-  </si>
-  <si>
     <t>VerifyTitle: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
   </si>
   <si>
@@ -1141,459 +1138,49 @@
     <t>SetText: asdasd@assdcsadsaasd.com</t>
   </si>
   <si>
+    <t>VerifyCategoryAndProduct: null</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: null</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: exist</t>
+  </si>
+  <si>
+    <t>MoveAndRemoveProduct: null</t>
+  </si>
+  <si>
+    <t>MoveAndRemoveProduct: All</t>
+  </si>
+  <si>
+    <t>VerifyMiniCart: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>SortBy: Price : Low to High</t>
+  </si>
+  <si>
+    <t>SortBy: Price : High to Low</t>
+  </si>
+  <si>
+    <t>SearchAndAddToWishlist: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>VerifyFooterLinks: null</t>
+  </si>
+  <si>
+    <t>Wait: 6000</t>
+  </si>
+  <si>
+    <t>SortBy: Product Name</t>
+  </si>
+  <si>
+    <t>SetText: userchandna7049580@mailinator.com</t>
+  </si>
+  <si>
     <t>VerifyText: Thank you for your subscription.</t>
   </si>
   <si>
-    <t>VerifyCategoryAndProduct: null</t>
-  </si>
-  <si>
-    <t>MoveAndAddProduct: null</t>
-  </si>
-  <si>
-    <t>MoveAndAddProduct: exist</t>
-  </si>
-  <si>
-    <t>MoveAndRemoveProduct: null</t>
-  </si>
-  <si>
-    <t>MoveAndRemoveProduct: All</t>
-  </si>
-  <si>
-    <t>VerifyMiniCart: You have no items in your shopping cart.</t>
-  </si>
-  <si>
-    <t>SortBy: Price : Low to High</t>
-  </si>
-  <si>
-    <t>SortBy: Price : High to Low</t>
-  </si>
-  <si>
-    <t>SearchAndAddToWishlist: Jose Ole Steak &amp; Cheese Chimichanga</t>
-  </si>
-  <si>
-    <t>VerifyFooterLinks: null</t>
-  </si>
-  <si>
-    <t>Wait: 6000</t>
-  </si>
-  <si>
-    <t>unknown error: Element &lt;span class="filter__sortTrigger"&gt;...&lt;/span&gt; is not clickable at point (1327, 7). Other element would receive the click: &lt;div class="header content header__content-container"&gt;...&lt;/div&gt;
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 82 milliseconds
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir9328_11835}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 8ce96e907ee16ee281e57b60c78991b0</t>
-  </si>
-  <si>
-    <t>SetText: userchandna7049580@mailinator.com</t>
-  </si>
-  <si>
     <t>SetText: Randomemailid</t>
-  </si>
-  <si>
-    <t>text not verified: Please enter a valid email address (Ex: johndoe@domain.com).</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.id: newsletter-error (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca</t>
-  </si>
-  <si>
-    <t>action set text failed: asdasd@assdcsadsaasd.com</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"newsletter"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 13 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=id, value=newsletter}</t>
-  </si>
-  <si>
-    <t>action click failed</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action subscribe primary']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 26 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action subscribe primary']}</t>
-  </si>
-  <si>
-    <t>text not verified: Thank you for your subscription.</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'text'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca</t>
-  </si>
-  <si>
-    <t>VerifyCategoryAndProduct Failed</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 14 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
-  </si>
-  <si>
-    <t>action MoveToProductList failed: Quick &amp; Easy Food Solutions</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 11 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
-  </si>
-  <si>
-    <t>action Move and add product failed: null</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 21 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 14 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 12 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>action Move and add product failed: exist</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 15 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>action MoveAndRemoveProduct failed: null</t>
-  </si>
-  <si>
-    <t>bound must be positive</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 13 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 16 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=id, value=btn-minicart-close}</t>
-  </si>
-  <si>
-    <t>Element not verified</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 16 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action switch']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 15 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action switch']}</t>
-  </si>
-  <si>
-    <t>action sort by failed: Price : Low to High</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action switch']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 9 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action switch']}</t>
-  </si>
-  <si>
-    <t>action sort by failed: Price : High to Low</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action switch']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 11 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action switch']}</t>
-  </si>
-  <si>
-    <t>action Search And Add To Wishlist failed: Jose Ole Steak &amp; Cheese Chimichanga</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 8 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 10 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 19 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 11 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 9 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=id, value=btn-minicart-close}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 9 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 9 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 11 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=id, value=btn-minicart-close}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 13 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
-  </si>
-  <si>
-    <t>action VerifyFooterLinks failed</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'footer__inner-left']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 14 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'footer__inner-left']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 19 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 24 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: cab2a1f1991a60d3a454d88e5871f3ca
-*** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
-  </si>
-  <si>
-    <t>SortBy: Product Name</t>
   </si>
 </sst>
 </file>
@@ -2474,7 +2061,7 @@
         <v>70</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>21</v>
@@ -2513,7 +2100,7 @@
         <v>71</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>21</v>
@@ -2552,7 +2139,7 @@
         <v>72</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>21</v>
@@ -2591,7 +2178,7 @@
         <v>73</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>21</v>
@@ -2636,7 +2223,7 @@
         <v>76</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>21</v>
@@ -2677,7 +2264,7 @@
         <v>75</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>21</v>
@@ -2716,7 +2303,7 @@
         <v>74</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>21</v>
@@ -2757,7 +2344,7 @@
         <v>77</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>21</v>
@@ -2794,7 +2381,7 @@
         <v>70</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>21</v>
@@ -2837,7 +2424,7 @@
         <v>221</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>21</v>
@@ -2874,7 +2461,7 @@
         <v>222</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>21</v>
@@ -2915,7 +2502,7 @@
         <v>223</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>21</v>
@@ -2954,7 +2541,7 @@
         <v>276</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>21</v>
@@ -2993,7 +2580,7 @@
         <v>279</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>21</v>
@@ -3032,7 +2619,7 @@
         <v>282</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>21</v>
@@ -3071,7 +2658,7 @@
         <v>284</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>21</v>
@@ -3110,7 +2697,7 @@
         <v>286</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>21</v>
@@ -3149,7 +2736,7 @@
         <v>288</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>21</v>
@@ -3188,7 +2775,7 @@
         <v>291</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>21</v>
@@ -3229,7 +2816,7 @@
         <v>107</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>21</v>
@@ -3270,7 +2857,7 @@
         <v>111</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>21</v>
@@ -3311,7 +2898,7 @@
         <v>115</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>21</v>
@@ -3350,7 +2937,7 @@
         <v>118</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>21</v>
@@ -3389,7 +2976,7 @@
         <v>121</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>21</v>
@@ -3426,7 +3013,7 @@
         <v>124</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>21</v>
@@ -3465,7 +3052,7 @@
         <v>127</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>21</v>
@@ -3504,7 +3091,7 @@
         <v>129</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>21</v>
@@ -3541,7 +3128,7 @@
         <v>130</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>21</v>
@@ -3580,7 +3167,7 @@
         <v>133</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>21</v>
@@ -3619,7 +3206,7 @@
         <v>136</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>21</v>
@@ -3658,7 +3245,7 @@
         <v>139</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>21</v>
@@ -3697,7 +3284,7 @@
         <v>142</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>21</v>
@@ -3736,7 +3323,7 @@
         <v>295</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>21</v>
@@ -3773,7 +3360,7 @@
         <v>297</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>21</v>
@@ -3816,7 +3403,7 @@
         <v>298</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>21</v>
@@ -3853,7 +3440,7 @@
         <v>300</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>21</v>
@@ -3892,7 +3479,7 @@
         <v>133</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>21</v>
@@ -3931,7 +3518,7 @@
         <v>224</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>21</v>
@@ -3972,7 +3559,7 @@
         <v>151</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>21</v>
@@ -4013,7 +3600,7 @@
         <v>154</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>21</v>
@@ -4054,7 +3641,7 @@
         <v>157</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>21</v>
@@ -4095,7 +3682,7 @@
         <v>160</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>21</v>
@@ -4136,7 +3723,7 @@
         <v>163</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>21</v>
@@ -4177,7 +3764,7 @@
         <v>166</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>21</v>
@@ -4218,7 +3805,7 @@
         <v>168</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>21</v>
@@ -4259,7 +3846,7 @@
         <v>171</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>21</v>
@@ -4298,7 +3885,7 @@
         <v>173</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>21</v>
@@ -4337,7 +3924,7 @@
         <v>176</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>21</v>
@@ -4376,7 +3963,7 @@
         <v>179</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>21</v>
@@ -4415,7 +4002,7 @@
         <v>182</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>21</v>
@@ -4456,7 +4043,7 @@
         <v>186</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>21</v>
@@ -4495,7 +4082,7 @@
         <v>179</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>21</v>
@@ -4534,7 +4121,7 @@
         <v>190</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>21</v>
@@ -4575,7 +4162,7 @@
         <v>194</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>21</v>
@@ -4614,7 +4201,7 @@
         <v>197</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>21</v>
@@ -4655,7 +4242,7 @@
         <v>202</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>21</v>
@@ -4698,7 +4285,7 @@
         <v>221</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>21</v>
@@ -4739,7 +4326,7 @@
         <v>206</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>21</v>
@@ -4778,7 +4365,7 @@
         <v>209</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>21</v>
@@ -4819,7 +4406,7 @@
         <v>316</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>21</v>
@@ -4860,7 +4447,7 @@
         <v>206</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>21</v>
@@ -4899,7 +4486,7 @@
         <v>209</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>21</v>
@@ -4940,7 +4527,7 @@
         <v>213</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>21</v>
@@ -4979,7 +4566,7 @@
         <v>216</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>21</v>
@@ -5022,7 +4609,7 @@
         <v>221</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>21</v>
@@ -5061,7 +4648,7 @@
         <v>225</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>21</v>
@@ -5100,7 +4687,7 @@
         <v>225</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>21</v>
@@ -5139,7 +4726,7 @@
         <v>225</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>21</v>
@@ -5180,7 +4767,7 @@
         <v>225</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>21</v>
@@ -5219,7 +4806,7 @@
         <v>226</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>21</v>
@@ -5260,7 +4847,7 @@
         <v>226</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M72" s="4" t="s">
         <v>21</v>
@@ -5299,7 +4886,7 @@
         <v>179</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>21</v>
@@ -5340,7 +4927,7 @@
         <v>230</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>21</v>
@@ -5379,7 +4966,7 @@
         <v>235</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>21</v>
@@ -5418,7 +5005,7 @@
         <v>190</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>21</v>
@@ -5430,7 +5017,7 @@
         <v>95</v>
       </c>
     </row>
-    <row ht="409.5" r="77" spans="1:15">
+    <row ht="30" r="77" spans="1:15">
       <c r="A77" s="4" t="s">
         <v>57</v>
       </c>
@@ -5459,7 +5046,7 @@
         <v>244</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>427</v>
+        <v>379</v>
       </c>
       <c r="M77" s="4" t="s">
         <v>21</v>
@@ -5500,7 +5087,7 @@
         <v>245</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M78" s="4" t="s">
         <v>21</v>
@@ -5541,7 +5128,7 @@
         <v>246</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>21</v>
@@ -5584,7 +5171,7 @@
         <v>221</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>21</v>
@@ -5625,7 +5212,7 @@
         <v>248</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>241</v>
@@ -5668,7 +5255,7 @@
         <v>221</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>21</v>
@@ -5707,7 +5294,7 @@
         <v>225</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>21</v>
@@ -5746,7 +5333,7 @@
         <v>225</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>21</v>
@@ -5785,7 +5372,7 @@
         <v>225</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M85" s="4" t="s">
         <v>21</v>
@@ -5824,7 +5411,7 @@
         <v>179</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M86" s="4" t="s">
         <v>21</v>
@@ -5865,7 +5452,7 @@
         <v>230</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>21</v>
@@ -5904,7 +5491,7 @@
         <v>235</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>21</v>
@@ -5947,7 +5534,7 @@
         <v>221</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M89" s="4" t="s">
         <v>21</v>
@@ -5988,7 +5575,7 @@
         <v>226</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M90" s="4" t="s">
         <v>21</v>
@@ -6027,7 +5614,7 @@
         <v>179</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M91" s="4" t="s">
         <v>21</v>
@@ -6068,7 +5655,7 @@
         <v>230</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M92" s="4" t="s">
         <v>21</v>
@@ -6107,7 +5694,7 @@
         <v>235</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M93" s="4" t="s">
         <v>21</v>
@@ -6150,7 +5737,7 @@
         <v>221</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M94" s="4" t="s">
         <v>21</v>
@@ -6189,7 +5776,7 @@
         <v>323</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M95" s="4" t="s">
         <v>21</v>
@@ -6228,7 +5815,7 @@
         <v>263</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M96" s="4" t="s">
         <v>21</v>
@@ -6267,7 +5854,7 @@
         <v>266</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M97" s="4" t="s">
         <v>21</v>
@@ -6304,7 +5891,7 @@
         <v>304</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M98" s="4" t="s">
         <v>21</v>
@@ -6343,7 +5930,7 @@
         <v>71</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M99" s="4" t="s">
         <v>21</v>

--- a/lib_testcase/com.aislend.ProductList.xlsx
+++ b/lib_testcase/com.aislend.ProductList.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akash\aislend\CityMarket\lib_testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="7905" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Scenario_ProductList" sheetId="2" r:id="rId1"/>
-    <sheet name="TC_ProductList" sheetId="1" r:id="rId2"/>
-    <sheet name="TC_ProductList1" sheetId="3" r:id="rId3"/>
+    <sheet name="Scenario_ProductList" r:id="rId1" sheetId="2"/>
+    <sheet name="TC_ProductList" r:id="rId2" sheetId="1"/>
+    <sheet name="TC_ProductList1" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2871" uniqueCount="374">
   <si>
     <t>Action</t>
   </si>
@@ -1145,12 +1145,40 @@
   </si>
   <si>
     <t>SetText: Randomemailid</t>
+  </si>
+  <si>
+    <t>action click failed</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 208 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13772_30562}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: d9b43bc53cf86967166b7f272ed4684c
+*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 38 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13772_30562}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: d9b43bc53cf86967166b7f272ed4684c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1299,59 +1327,59 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
@@ -1378,10 +1406,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="1" type="wholeTable"/>
+      <tableStyleElement dxfId="0" type="headerRow"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1400,10 +1428,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1438,7 +1466,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1473,7 +1501,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1567,21 +1595,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1598,7 +1626,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1650,14 +1678,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
@@ -1666,13 +1694,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="59.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.42578125" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.140625" style="5" collapsed="1"/>
-    <col min="6" max="6" width="49.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="59.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="36.42578125" collapsed="true"/>
+    <col min="5" max="5" style="5" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="49.85546875" collapsed="true"/>
+    <col min="7" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1919,37 +1947,37 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
       <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="38" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="23.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="44.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="23.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="38.0" collapsed="true"/>
+    <col min="8" max="10" customWidth="true" style="1" width="23.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="16" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="30">
+    <row customFormat="1" ht="30" r="1" s="2" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1996,7 +2024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60">
+    <row ht="60" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -2033,7 +2061,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30">
+    <row ht="30" r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -2072,7 +2100,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30">
+    <row ht="30" r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -2111,7 +2139,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="45">
+    <row ht="45" r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -2150,7 +2178,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30">
+    <row ht="30" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -2195,7 +2223,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30">
+    <row ht="30" r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -2236,7 +2264,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30">
+    <row ht="30" r="8" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -2275,7 +2303,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="45">
+    <row ht="45" r="9" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -2316,7 +2344,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="60">
+    <row ht="60" r="10" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -2353,7 +2381,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="60">
+    <row ht="60" r="11" spans="1:15">
       <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
@@ -2396,7 +2424,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="75">
+    <row ht="75" r="12" spans="1:15">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -2433,7 +2461,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30">
+    <row ht="30" r="13" spans="1:15">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -2474,7 +2502,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="75">
+    <row ht="75" r="14" spans="1:15">
       <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
@@ -2513,7 +2541,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="45">
+    <row ht="45" r="15" spans="1:15">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -2552,7 +2580,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="30">
+    <row ht="30" r="16" spans="1:15">
       <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
@@ -2591,7 +2619,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="45">
+    <row ht="45" r="17" spans="1:15">
       <c r="A17" s="4" t="s">
         <v>45</v>
       </c>
@@ -2630,7 +2658,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="45">
+    <row ht="45" r="18" spans="1:15">
       <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
@@ -2669,7 +2697,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="30">
+    <row ht="30" r="19" spans="1:15">
       <c r="A19" s="4" t="s">
         <v>45</v>
       </c>
@@ -2708,7 +2736,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="75">
+    <row ht="75" r="20" spans="1:15">
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
@@ -2747,7 +2775,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="75">
+    <row ht="75" r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>45</v>
       </c>
@@ -2788,7 +2816,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="45">
+    <row ht="45" r="22" spans="1:15">
       <c r="A22" s="4" t="s">
         <v>45</v>
       </c>
@@ -2829,7 +2857,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="90">
+    <row ht="90" r="23" spans="1:15">
       <c r="A23" s="4" t="s">
         <v>45</v>
       </c>
@@ -2870,7 +2898,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="45">
+    <row ht="45" r="24" spans="1:15">
       <c r="A24" s="4" t="s">
         <v>45</v>
       </c>
@@ -2909,7 +2937,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="30">
+    <row ht="30" r="25" spans="1:15">
       <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
@@ -2948,7 +2976,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="30">
+    <row ht="30" r="26" spans="1:15">
       <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
@@ -2985,7 +3013,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="45">
+    <row ht="45" r="27" spans="1:15">
       <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3024,7 +3052,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="45">
+    <row ht="45" r="28" spans="1:15">
       <c r="A28" s="4" t="s">
         <v>45</v>
       </c>
@@ -3063,7 +3091,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="30">
+    <row ht="30" r="29" spans="1:15">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -3100,7 +3128,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="45">
+    <row ht="45" r="30" spans="1:15">
       <c r="A30" s="4" t="s">
         <v>46</v>
       </c>
@@ -3139,7 +3167,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="45">
+    <row ht="45" r="31" spans="1:15">
       <c r="A31" s="4" t="s">
         <v>46</v>
       </c>
@@ -3178,7 +3206,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="45">
+    <row ht="45" r="32" spans="1:15">
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
@@ -3217,7 +3245,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="45">
+    <row ht="45" r="33" spans="1:15">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
@@ -3256,7 +3284,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="45">
+    <row ht="45" r="34" spans="1:15">
       <c r="A34" s="4" t="s">
         <v>47</v>
       </c>
@@ -3295,7 +3323,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="30">
+    <row ht="30" r="35" spans="1:15">
       <c r="A35" s="4" t="s">
         <v>47</v>
       </c>
@@ -3332,7 +3360,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="60">
+    <row ht="60" r="36" spans="1:15">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -3375,7 +3403,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="75">
+    <row ht="75" r="37" spans="1:15">
       <c r="A37" s="4" t="s">
         <v>47</v>
       </c>
@@ -3412,7 +3440,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="45">
+    <row ht="45" r="38" spans="1:15">
       <c r="A38" s="4" t="s">
         <v>48</v>
       </c>
@@ -3451,7 +3479,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="45">
+    <row ht="45" r="39" spans="1:15">
       <c r="A39" s="4" t="s">
         <v>48</v>
       </c>
@@ -3490,7 +3518,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="45">
+    <row ht="45" r="40" spans="1:15">
       <c r="A40" s="4" t="s">
         <v>48</v>
       </c>
@@ -3531,7 +3559,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="45">
+    <row ht="45" r="41" spans="1:15">
       <c r="A41" s="4" t="s">
         <v>48</v>
       </c>
@@ -3572,7 +3600,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="45">
+    <row ht="45" r="42" spans="1:15">
       <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
@@ -3613,7 +3641,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="45">
+    <row ht="45" r="43" spans="1:15">
       <c r="A43" s="4" t="s">
         <v>48</v>
       </c>
@@ -3654,7 +3682,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="45">
+    <row ht="45" r="44" spans="1:15">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -3695,7 +3723,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="45">
+    <row ht="45" r="45" spans="1:15">
       <c r="A45" s="4" t="s">
         <v>48</v>
       </c>
@@ -3736,7 +3764,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="45">
+    <row ht="45" r="46" spans="1:15">
       <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
@@ -3777,7 +3805,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="45">
+    <row ht="45" r="47" spans="1:15">
       <c r="A47" s="4" t="s">
         <v>48</v>
       </c>
@@ -3818,7 +3846,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="30">
+    <row ht="30" r="48" spans="1:15">
       <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
@@ -3857,7 +3885,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="45">
+    <row ht="45" r="49" spans="1:15">
       <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
@@ -3896,7 +3924,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="60">
+    <row ht="60" r="50" spans="1:15">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
@@ -3935,7 +3963,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="75">
+    <row ht="75" r="51" spans="1:15">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
@@ -3974,7 +4002,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="60">
+    <row ht="60" r="52" spans="1:15">
       <c r="A52" s="4" t="s">
         <v>49</v>
       </c>
@@ -4015,7 +4043,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="30">
+    <row ht="30" r="53" spans="1:15">
       <c r="A53" s="4" t="s">
         <v>49</v>
       </c>
@@ -4054,7 +4082,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="75">
+    <row ht="75" r="54" spans="1:15">
       <c r="A54" s="4" t="s">
         <v>49</v>
       </c>
@@ -4093,7 +4121,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="30">
+    <row ht="30" r="55" spans="1:15">
       <c r="A55" s="4" t="s">
         <v>50</v>
       </c>
@@ -4134,7 +4162,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="45">
+    <row ht="45" r="56" spans="1:15">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
@@ -4173,7 +4201,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="75">
+    <row ht="75" r="57" spans="1:15">
       <c r="A57" s="4" t="s">
         <v>50</v>
       </c>
@@ -4214,7 +4242,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="60">
+    <row ht="60" r="58" spans="1:15">
       <c r="A58" s="4" t="s">
         <v>50</v>
       </c>
@@ -4257,7 +4285,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="30">
+    <row ht="30" r="59" spans="1:15">
       <c r="A59" s="4" t="s">
         <v>51</v>
       </c>
@@ -4298,7 +4326,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="45">
+    <row ht="45" r="60" spans="1:15">
       <c r="A60" s="4" t="s">
         <v>51</v>
       </c>
@@ -4337,7 +4365,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="75">
+    <row ht="75" r="61" spans="1:15">
       <c r="A61" s="4" t="s">
         <v>51</v>
       </c>
@@ -4378,7 +4406,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="45">
+    <row ht="45" r="62" spans="1:15">
       <c r="A62" s="4" t="s">
         <v>51</v>
       </c>
@@ -4419,7 +4447,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="45">
+    <row ht="45" r="63" spans="1:15">
       <c r="A63" s="4" t="s">
         <v>51</v>
       </c>
@@ -4458,7 +4486,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="60">
+    <row ht="60" r="64" spans="1:15">
       <c r="A64" s="4" t="s">
         <v>51</v>
       </c>
@@ -4499,7 +4527,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="60">
+    <row ht="60" r="65" spans="1:15">
       <c r="A65" s="4" t="s">
         <v>52</v>
       </c>
@@ -4538,7 +4566,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="60">
+    <row ht="60" r="66" spans="1:15">
       <c r="A66" s="4" t="s">
         <v>53</v>
       </c>
@@ -4581,7 +4609,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="75">
+    <row ht="75" r="67" spans="1:15">
       <c r="A67" s="4" t="s">
         <v>53</v>
       </c>
@@ -4620,7 +4648,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="75">
+    <row ht="75" r="68" spans="1:15">
       <c r="A68" s="4" t="s">
         <v>53</v>
       </c>
@@ -4659,7 +4687,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="75">
+    <row ht="75" r="69" spans="1:15">
       <c r="A69" s="4" t="s">
         <v>53</v>
       </c>
@@ -4698,7 +4726,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="75">
+    <row ht="75" r="70" spans="1:15">
       <c r="A70" s="4" t="s">
         <v>53</v>
       </c>
@@ -4739,7 +4767,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="75">
+    <row ht="75" r="71" spans="1:15">
       <c r="A71" s="4" t="s">
         <v>54</v>
       </c>
@@ -4778,7 +4806,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="75">
+    <row ht="75" r="72" spans="1:15">
       <c r="A72" s="4" t="s">
         <v>54</v>
       </c>
@@ -4819,7 +4847,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="60">
+    <row ht="60" r="73" spans="1:15">
       <c r="A73" s="4" t="s">
         <v>55</v>
       </c>
@@ -4858,7 +4886,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="45">
+    <row ht="45" r="74" spans="1:15">
       <c r="A74" s="4" t="s">
         <v>55</v>
       </c>
@@ -4899,7 +4927,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="30">
+    <row ht="30" r="75" spans="1:15">
       <c r="A75" s="4" t="s">
         <v>55</v>
       </c>
@@ -4938,7 +4966,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="75">
+    <row ht="75" r="76" spans="1:15">
       <c r="A76" s="4" t="s">
         <v>55</v>
       </c>
@@ -4977,7 +5005,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="30">
+    <row ht="30" r="77" spans="1:15">
       <c r="A77" s="4" t="s">
         <v>56</v>
       </c>
@@ -5018,7 +5046,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="30">
+    <row ht="30" r="78" spans="1:15">
       <c r="A78" s="4" t="s">
         <v>56</v>
       </c>
@@ -5050,7 +5078,7 @@
         <v>363</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="N78" s="4" t="s">
         <v>22</v>
@@ -5059,7 +5087,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="30">
+    <row ht="30" r="79" spans="1:15">
       <c r="A79" s="4" t="s">
         <v>56</v>
       </c>
@@ -5091,7 +5119,7 @@
         <v>364</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="N79" s="4" t="s">
         <v>22</v>
@@ -5100,7 +5128,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="60">
+    <row ht="60" r="80" spans="1:15">
       <c r="A80" s="4" t="s">
         <v>89</v>
       </c>
@@ -5143,7 +5171,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="75">
+    <row ht="75" r="81" spans="1:15">
       <c r="A81" s="4" t="s">
         <v>91</v>
       </c>
@@ -5182,7 +5210,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="75">
+    <row ht="75" r="82" spans="1:15">
       <c r="A82" s="4" t="s">
         <v>91</v>
       </c>
@@ -5221,7 +5249,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="75">
+    <row ht="75" r="83" spans="1:15">
       <c r="A83" s="4" t="s">
         <v>91</v>
       </c>
@@ -5251,7 +5279,7 @@
         <v>358</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="N83" s="4" t="s">
         <v>22</v>
@@ -5260,7 +5288,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="60">
+    <row ht="60" r="84" spans="1:15">
       <c r="A84" s="4" t="s">
         <v>91</v>
       </c>
@@ -5299,7 +5327,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="45">
+    <row ht="45" r="85" spans="1:15">
       <c r="A85" s="4" t="s">
         <v>91</v>
       </c>
@@ -5340,7 +5368,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="30">
+    <row ht="30" r="86" spans="1:15">
       <c r="A86" s="4" t="s">
         <v>91</v>
       </c>
@@ -5379,7 +5407,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="60">
+    <row ht="60" r="87" spans="1:15">
       <c r="A87" s="4" t="s">
         <v>91</v>
       </c>
@@ -5422,7 +5450,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="75">
+    <row ht="75" r="88" spans="1:15">
       <c r="A88" s="4" t="s">
         <v>91</v>
       </c>
@@ -5463,7 +5491,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="60">
+    <row ht="60" r="89" spans="1:15">
       <c r="A89" s="4" t="s">
         <v>91</v>
       </c>
@@ -5502,7 +5530,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="45">
+    <row ht="45" r="90" spans="1:15">
       <c r="A90" s="4" t="s">
         <v>91</v>
       </c>
@@ -5543,7 +5571,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="30">
+    <row ht="30" r="91" spans="1:15">
       <c r="A91" s="4" t="s">
         <v>91</v>
       </c>
@@ -5582,7 +5610,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="60">
+    <row ht="60" r="92" spans="1:15">
       <c r="A92" s="4" t="s">
         <v>91</v>
       </c>
@@ -5625,7 +5653,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="45">
+    <row ht="45" r="93" spans="1:15">
       <c r="A93" s="4" t="s">
         <v>92</v>
       </c>
@@ -5664,7 +5692,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="30">
+    <row ht="30" r="94" spans="1:15">
       <c r="A94" s="4" t="s">
         <v>314</v>
       </c>
@@ -5703,7 +5731,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="30">
+    <row ht="30" r="95" spans="1:15">
       <c r="A95" s="4" t="s">
         <v>314</v>
       </c>
@@ -5742,7 +5770,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="30">
+    <row ht="30" r="96" spans="1:15">
       <c r="A96" s="4" t="s">
         <v>314</v>
       </c>
@@ -5779,7 +5807,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="45">
+    <row ht="45" r="97" spans="1:15">
       <c r="A97" s="4" t="s">
         <v>314</v>
       </c>
@@ -5820,41 +5848,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G59" r:id="rId1"/>
-    <hyperlink ref="H6" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="G59"/>
+    <hyperlink r:id="rId2" ref="H6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="76" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0" zoomScale="76">
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="38" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="23.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="44.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="23.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="38.0" collapsed="true"/>
+    <col min="8" max="10" customWidth="true" style="1" width="23.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="16" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="30">
+    <row customFormat="1" ht="30" r="1" s="2" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -5901,7 +5929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60">
+    <row ht="60" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -5938,7 +5966,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30">
+    <row ht="30" r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -5977,7 +6005,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30">
+    <row ht="30" r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -6016,7 +6044,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="45">
+    <row ht="45" r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -6055,7 +6083,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30">
+    <row ht="30" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -6100,7 +6128,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30">
+    <row ht="30" r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -6141,7 +6169,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30">
+    <row ht="30" r="8" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -6180,7 +6208,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="45">
+    <row ht="45" r="9" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -6221,7 +6249,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="60">
+    <row ht="60" r="10" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -6258,7 +6286,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="60">
+    <row ht="60" r="11" spans="1:15">
       <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
@@ -6301,7 +6329,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="75">
+    <row ht="75" r="12" spans="1:15">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -6338,7 +6366,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30">
+    <row ht="30" r="13" spans="1:15">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -6379,7 +6407,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="75">
+    <row ht="75" r="14" spans="1:15">
       <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
@@ -6418,7 +6446,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="45">
+    <row ht="45" r="15" spans="1:15">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -6457,7 +6485,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="30">
+    <row ht="30" r="16" spans="1:15">
       <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
@@ -6496,7 +6524,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="45">
+    <row ht="45" r="17" spans="1:15">
       <c r="A17" s="4" t="s">
         <v>45</v>
       </c>
@@ -6535,7 +6563,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="45">
+    <row ht="45" r="18" spans="1:15">
       <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
@@ -6574,7 +6602,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="30">
+    <row ht="30" r="19" spans="1:15">
       <c r="A19" s="4" t="s">
         <v>45</v>
       </c>
@@ -6613,7 +6641,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="75">
+    <row ht="75" r="20" spans="1:15">
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
@@ -6652,7 +6680,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="75">
+    <row ht="75" r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>45</v>
       </c>
@@ -6693,7 +6721,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="45">
+    <row ht="45" r="22" spans="1:15">
       <c r="A22" s="4" t="s">
         <v>45</v>
       </c>
@@ -6734,7 +6762,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="90">
+    <row ht="90" r="23" spans="1:15">
       <c r="A23" s="4" t="s">
         <v>45</v>
       </c>
@@ -6775,7 +6803,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="45">
+    <row ht="45" r="24" spans="1:15">
       <c r="A24" s="4" t="s">
         <v>45</v>
       </c>
@@ -6814,7 +6842,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="30">
+    <row ht="30" r="25" spans="1:15">
       <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
@@ -6853,7 +6881,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="30">
+    <row ht="30" r="26" spans="1:15">
       <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
@@ -6890,7 +6918,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="45">
+    <row ht="45" r="27" spans="1:15">
       <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
@@ -6929,7 +6957,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="45">
+    <row ht="45" r="28" spans="1:15">
       <c r="A28" s="4" t="s">
         <v>45</v>
       </c>
@@ -6968,7 +6996,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="30">
+    <row ht="30" r="29" spans="1:15">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -7005,7 +7033,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="45">
+    <row ht="45" r="30" spans="1:15">
       <c r="A30" s="4" t="s">
         <v>46</v>
       </c>
@@ -7044,7 +7072,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="45">
+    <row ht="45" r="31" spans="1:15">
       <c r="A31" s="4" t="s">
         <v>46</v>
       </c>
@@ -7083,7 +7111,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="45">
+    <row ht="45" r="32" spans="1:15">
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
@@ -7122,7 +7150,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="45">
+    <row ht="45" r="33" spans="1:15">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
@@ -7161,7 +7189,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="45">
+    <row ht="45" r="34" spans="1:15">
       <c r="A34" s="4" t="s">
         <v>47</v>
       </c>
@@ -7200,7 +7228,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="30">
+    <row ht="30" r="35" spans="1:15">
       <c r="A35" s="4" t="s">
         <v>47</v>
       </c>
@@ -7237,7 +7265,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="60">
+    <row ht="60" r="36" spans="1:15">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -7280,7 +7308,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="75">
+    <row ht="75" r="37" spans="1:15">
       <c r="A37" s="4" t="s">
         <v>47</v>
       </c>
@@ -7317,7 +7345,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="45">
+    <row ht="45" r="38" spans="1:15">
       <c r="A38" s="4" t="s">
         <v>48</v>
       </c>
@@ -7356,7 +7384,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="45">
+    <row ht="45" r="39" spans="1:15">
       <c r="A39" s="4" t="s">
         <v>48</v>
       </c>
@@ -7395,7 +7423,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="45">
+    <row ht="45" r="40" spans="1:15">
       <c r="A40" s="4" t="s">
         <v>48</v>
       </c>
@@ -7436,7 +7464,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="45">
+    <row ht="45" r="41" spans="1:15">
       <c r="A41" s="4" t="s">
         <v>48</v>
       </c>
@@ -7477,7 +7505,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="45">
+    <row ht="45" r="42" spans="1:15">
       <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
@@ -7518,7 +7546,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="45">
+    <row ht="45" r="43" spans="1:15">
       <c r="A43" s="4" t="s">
         <v>48</v>
       </c>
@@ -7559,7 +7587,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="45">
+    <row ht="45" r="44" spans="1:15">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -7600,7 +7628,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="45">
+    <row ht="45" r="45" spans="1:15">
       <c r="A45" s="4" t="s">
         <v>48</v>
       </c>
@@ -7641,7 +7669,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="45">
+    <row ht="45" r="46" spans="1:15">
       <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
@@ -7682,7 +7710,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="45">
+    <row ht="45" r="47" spans="1:15">
       <c r="A47" s="4" t="s">
         <v>48</v>
       </c>
@@ -7723,7 +7751,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="30">
+    <row ht="30" r="48" spans="1:15">
       <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
@@ -7762,7 +7790,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="45">
+    <row ht="45" r="49" spans="1:15">
       <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
@@ -7801,7 +7829,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="60">
+    <row ht="60" r="50" spans="1:15">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
@@ -7840,7 +7868,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="75">
+    <row ht="75" r="51" spans="1:15">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
@@ -7879,7 +7907,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="60">
+    <row ht="60" r="52" spans="1:15">
       <c r="A52" s="4" t="s">
         <v>49</v>
       </c>
@@ -7920,7 +7948,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="30">
+    <row ht="30" r="53" spans="1:15">
       <c r="A53" s="4" t="s">
         <v>49</v>
       </c>
@@ -7959,7 +7987,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="75">
+    <row ht="75" r="54" spans="1:15">
       <c r="A54" s="4" t="s">
         <v>49</v>
       </c>
@@ -7998,7 +8026,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="30">
+    <row ht="30" r="55" spans="1:15">
       <c r="A55" s="4" t="s">
         <v>50</v>
       </c>
@@ -8039,7 +8067,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="45">
+    <row ht="45" r="56" spans="1:15">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
@@ -8078,7 +8106,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="75">
+    <row ht="75" r="57" spans="1:15">
       <c r="A57" s="4" t="s">
         <v>50</v>
       </c>
@@ -8119,7 +8147,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="60">
+    <row ht="60" r="58" spans="1:15">
       <c r="A58" s="4" t="s">
         <v>50</v>
       </c>
@@ -8162,7 +8190,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="30">
+    <row ht="30" r="59" spans="1:15">
       <c r="A59" s="4" t="s">
         <v>51</v>
       </c>
@@ -8203,7 +8231,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="45">
+    <row ht="45" r="60" spans="1:15">
       <c r="A60" s="4" t="s">
         <v>51</v>
       </c>
@@ -8242,7 +8270,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="75">
+    <row ht="75" r="61" spans="1:15">
       <c r="A61" s="4" t="s">
         <v>51</v>
       </c>
@@ -8283,7 +8311,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="45">
+    <row ht="45" r="62" spans="1:15">
       <c r="A62" s="4" t="s">
         <v>51</v>
       </c>
@@ -8324,7 +8352,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="45">
+    <row ht="45" r="63" spans="1:15">
       <c r="A63" s="4" t="s">
         <v>51</v>
       </c>
@@ -8363,7 +8391,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="60">
+    <row ht="60" r="64" spans="1:15">
       <c r="A64" s="4" t="s">
         <v>51</v>
       </c>
@@ -8404,7 +8432,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="60">
+    <row ht="60" r="65" spans="1:15">
       <c r="A65" s="4" t="s">
         <v>52</v>
       </c>
@@ -8443,7 +8471,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="60">
+    <row ht="60" r="66" spans="1:15">
       <c r="A66" s="4" t="s">
         <v>53</v>
       </c>
@@ -8486,7 +8514,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="75">
+    <row ht="75" r="67" spans="1:15">
       <c r="A67" s="4" t="s">
         <v>53</v>
       </c>
@@ -8525,7 +8553,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="75">
+    <row ht="75" r="68" spans="1:15">
       <c r="A68" s="4" t="s">
         <v>53</v>
       </c>
@@ -8564,7 +8592,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="75">
+    <row ht="75" r="69" spans="1:15">
       <c r="A69" s="4" t="s">
         <v>53</v>
       </c>
@@ -8603,7 +8631,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="75">
+    <row ht="75" r="70" spans="1:15">
       <c r="A70" s="4" t="s">
         <v>53</v>
       </c>
@@ -8644,7 +8672,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="75">
+    <row ht="75" r="71" spans="1:15">
       <c r="A71" s="4" t="s">
         <v>54</v>
       </c>
@@ -8683,7 +8711,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="75">
+    <row ht="75" r="72" spans="1:15">
       <c r="A72" s="4" t="s">
         <v>54</v>
       </c>
@@ -8724,7 +8752,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="60">
+    <row ht="60" r="73" spans="1:15">
       <c r="A73" s="4" t="s">
         <v>55</v>
       </c>
@@ -8763,7 +8791,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="45">
+    <row ht="45" r="74" spans="1:15">
       <c r="A74" s="4" t="s">
         <v>55</v>
       </c>
@@ -8804,7 +8832,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="30">
+    <row ht="30" r="75" spans="1:15">
       <c r="A75" s="4" t="s">
         <v>55</v>
       </c>
@@ -8843,7 +8871,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="75">
+    <row ht="75" r="76" spans="1:15">
       <c r="A76" s="4" t="s">
         <v>55</v>
       </c>
@@ -8882,7 +8910,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="30">
+    <row ht="30" r="77" spans="1:15">
       <c r="A77" s="4" t="s">
         <v>56</v>
       </c>
@@ -8923,7 +8951,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="30">
+    <row ht="30" r="78" spans="1:15">
       <c r="A78" s="4" t="s">
         <v>56</v>
       </c>
@@ -8964,7 +8992,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="30">
+    <row ht="30" r="79" spans="1:15">
       <c r="A79" s="4" t="s">
         <v>56</v>
       </c>
@@ -9005,7 +9033,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="60">
+    <row ht="60" r="80" spans="1:15">
       <c r="A80" s="4" t="s">
         <v>89</v>
       </c>
@@ -9048,7 +9076,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="75">
+    <row ht="75" r="81" spans="1:15">
       <c r="A81" s="4" t="s">
         <v>89</v>
       </c>
@@ -9089,7 +9117,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="60">
+    <row ht="60" r="82" spans="1:15">
       <c r="A82" s="4" t="s">
         <v>89</v>
       </c>
@@ -9132,7 +9160,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="75">
+    <row ht="75" r="83" spans="1:15">
       <c r="A83" s="4" t="s">
         <v>91</v>
       </c>
@@ -9171,7 +9199,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="75">
+    <row ht="75" r="84" spans="1:15">
       <c r="A84" s="4" t="s">
         <v>91</v>
       </c>
@@ -9210,7 +9238,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="75">
+    <row ht="75" r="85" spans="1:15">
       <c r="A85" s="4" t="s">
         <v>91</v>
       </c>
@@ -9249,7 +9277,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="60">
+    <row ht="60" r="86" spans="1:15">
       <c r="A86" s="4" t="s">
         <v>91</v>
       </c>
@@ -9288,7 +9316,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="45">
+    <row ht="45" r="87" spans="1:15">
       <c r="A87" s="4" t="s">
         <v>91</v>
       </c>
@@ -9329,7 +9357,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="30">
+    <row ht="30" r="88" spans="1:15">
       <c r="A88" s="4" t="s">
         <v>91</v>
       </c>
@@ -9368,7 +9396,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="60">
+    <row ht="60" r="89" spans="1:15">
       <c r="A89" s="4" t="s">
         <v>91</v>
       </c>
@@ -9411,7 +9439,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="75">
+    <row ht="75" r="90" spans="1:15">
       <c r="A90" s="4" t="s">
         <v>91</v>
       </c>
@@ -9452,7 +9480,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="60">
+    <row ht="60" r="91" spans="1:15">
       <c r="A91" s="4" t="s">
         <v>91</v>
       </c>
@@ -9491,7 +9519,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="45">
+    <row ht="45" r="92" spans="1:15">
       <c r="A92" s="4" t="s">
         <v>91</v>
       </c>
@@ -9532,7 +9560,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="30">
+    <row ht="30" r="93" spans="1:15">
       <c r="A93" s="4" t="s">
         <v>91</v>
       </c>
@@ -9571,7 +9599,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="60">
+    <row ht="60" r="94" spans="1:15">
       <c r="A94" s="4" t="s">
         <v>91</v>
       </c>
@@ -9614,7 +9642,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="45">
+    <row ht="45" r="95" spans="1:15">
       <c r="A95" s="4" t="s">
         <v>92</v>
       </c>
@@ -9653,7 +9681,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="30">
+    <row ht="30" r="96" spans="1:15">
       <c r="A96" s="4" t="s">
         <v>314</v>
       </c>
@@ -9692,7 +9720,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="30">
+    <row ht="30" r="97" spans="1:15">
       <c r="A97" s="4" t="s">
         <v>314</v>
       </c>
@@ -9731,7 +9759,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="30">
+    <row ht="30" r="98" spans="1:15">
       <c r="A98" s="4" t="s">
         <v>314</v>
       </c>
@@ -9768,7 +9796,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="45">
+    <row ht="45" r="99" spans="1:15">
       <c r="A99" s="4" t="s">
         <v>314</v>
       </c>
@@ -9809,9 +9837,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G59" r:id="rId1"/>
-    <hyperlink ref="H6" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="G59"/>
+    <hyperlink r:id="rId2" ref="H6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/lib_testcase/com.aislend.ProductList.xlsx
+++ b/lib_testcase/com.aislend.ProductList.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2871" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3735" uniqueCount="374">
   <si>
     <t>Action</t>
   </si>
@@ -4678,7 +4678,7 @@
         <v>358</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="N68" s="4" t="s">
         <v>22</v>
@@ -4717,7 +4717,7 @@
         <v>358</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="N69" s="4" t="s">
         <v>22</v>
@@ -5279,7 +5279,7 @@
         <v>358</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="N83" s="4" t="s">
         <v>22</v>

--- a/lib_testcase/com.aislend.ProductList.xlsx
+++ b/lib_testcase/com.aislend.ProductList.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3735" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5463" uniqueCount="383">
   <si>
     <t>Action</t>
   </si>
@@ -1172,6 +1172,87 @@
 Driver info: org.openqa.selenium.chrome.ChromeDriver
 Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13772_30562}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
 Session ID: d9b43bc53cf86967166b7f272ed4684c</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 25 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac</t>
+  </si>
+  <si>
+    <t>action set text failed: Randomemailid</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-email"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 24 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=id, value=magestore-sociallogin-popup-email}</t>
+  </si>
+  <si>
+    <t>action set text failed: 123456</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-pass"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 31 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=id, value=magestore-sociallogin-popup-pass}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 29 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=id, value=magestore-button-sociallogin}</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: null</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 96 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 24 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16684_27708}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: bcbba7b95d422f3bb9282ae7962498f4</t>
   </si>
 </sst>
 </file>
@@ -4678,7 +4759,7 @@
         <v>358</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="N68" s="4" t="s">
         <v>22</v>
@@ -4717,7 +4798,7 @@
         <v>358</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="N69" s="4" t="s">
         <v>22</v>
@@ -5078,7 +5159,7 @@
         <v>363</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="N78" s="4" t="s">
         <v>22</v>
@@ -5119,7 +5200,7 @@
         <v>364</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="N79" s="4" t="s">
         <v>22</v>
@@ -5276,13 +5357,13 @@
         <v>224</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>22</v>
+        <v>382</v>
       </c>
       <c r="O83" s="4" t="s">
         <v>94</v>
